--- a/single_cell/singlecell_schema_main_v0.4.xlsx
+++ b/single_cell/singlecell_schema_main_v0.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/single_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB889FD2-77E2-7544-8AC5-52D4D6F1279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25ABCA4-D16D-044F-8537-260B0FA46671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-2660" windowWidth="38400" windowHeight="21600" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1263">
   <si>
     <t>component_name</t>
   </si>
@@ -3990,6 +3990,12 @@
   </si>
   <si>
     <t>EXPFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It must be a hex numbers with 32 digits </t>
+  </si>
+  <si>
+    <t>^[0-9a-f]{32}$</t>
   </si>
 </sst>
 </file>
@@ -5337,10 +5343,10 @@
   </sheetPr>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -13314,8 +13320,12 @@
       <c r="J172" s="41" t="s">
         <v>1241</v>
       </c>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
+      <c r="K172" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>1261</v>
+      </c>
       <c r="M172" s="3" t="s">
         <v>26</v>
       </c>
@@ -13358,8 +13368,12 @@
       <c r="J173" s="41" t="s">
         <v>1241</v>
       </c>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
+      <c r="K173" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>1261</v>
+      </c>
       <c r="M173" s="3" t="s">
         <v>26</v>
       </c>
@@ -14614,7 +14628,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S201" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:S30 P2:R201 S171" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
   <hyperlinks>

--- a/single_cell/singlecell_schema_main_v0.4.xlsx
+++ b/single_cell/singlecell_schema_main_v0.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25ABCA4-D16D-044F-8537-260B0FA46671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29E95C-7062-CF4D-9DCE-057E71BEF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2998,34 +2998,10 @@
     <t>standard</t>
   </si>
   <si>
-    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Darwin Core (DwC)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies aimed focused on biodiversity-related information in alignment with the Darwin Core (DwC) standard.</t>
-  </si>
-  <si>
     <t>dwc</t>
   </si>
   <si>
     <t>sc_rnaseq</t>
-  </si>
-  <si>
-    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
-  </si>
-  <si>
-    <t>Single-cell Ribonucleic Acid Sequencing ((scRNA-Seq) [Tree of Life (ToL)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies, using Tree of Life metadata, aimed at understanding the origins and diversity of life on Earth.</t>
-  </si>
-  <si>
-    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Functional Annotation of Animal Genomes (FAANG)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies using  FAANG metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
   <si>
     <t>stx_seq</t>
@@ -3996,6 +3972,30 @@
   </si>
   <si>
     <t>^[0-9a-f]{32}$</t>
+  </si>
+  <si>
+    <t>Darwin Core metadata</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq)  studies aimed focused on biodiversity-related information in alignment with the Darwin Core (DwC) standard.</t>
+  </si>
+  <si>
+    <t>Minimum Information about any Sequence metadata</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq) studies with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
+  </si>
+  <si>
+    <t>Tree of Life metadata</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq) studies, using Tree of Life (ToL) metadata, aimed at understanding the origins and diversity of life on Earth.</t>
+  </si>
+  <si>
+    <t>Functional Annotation of Animal Genomes metadata</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq) studies using  Functional Annotation of Animal Genomes (FAANG) metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
 </sst>
 </file>
@@ -5343,7 +5343,7 @@
   </sheetPr>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView topLeftCell="A153" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
       <selection pane="topRight" activeCell="K171" sqref="K171"/>
@@ -5391,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -6104,7 +6104,7 @@
         <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -6631,7 +6631,7 @@
         <v>156</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>162</v>
@@ -6684,7 +6684,7 @@
         <v>156</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>170</v>
@@ -6737,7 +6737,7 @@
         <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>176</v>
@@ -6851,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>185</v>
@@ -7376,10 +7376,10 @@
         <v>26</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="P43" s="31"/>
       <c r="Q43" s="58"/>
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>247</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>301</v>
@@ -8518,7 +8518,7 @@
         <v>298</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>310</v>
@@ -10194,7 +10194,7 @@
         <v>463</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>464</v>
@@ -10206,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>466</v>
@@ -10247,7 +10247,7 @@
         <v>463</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>469</v>
@@ -10295,7 +10295,7 @@
         <v>463</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>474</v>
@@ -10535,7 +10535,7 @@
         <v>463</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>496</v>
@@ -10581,7 +10581,7 @@
         <v>463</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>501</v>
@@ -10631,7 +10631,7 @@
         <v>463</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>505</v>
@@ -10681,7 +10681,7 @@
         <v>463</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>508</v>
@@ -10727,7 +10727,7 @@
         <v>463</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>513</v>
@@ -10777,7 +10777,7 @@
         <v>463</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>517</v>
@@ -12986,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>713</v>
@@ -13318,13 +13318,13 @@
         <v>732</v>
       </c>
       <c r="J172" s="41" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>26</v>
@@ -13366,13 +13366,13 @@
         <v>735</v>
       </c>
       <c r="J173" s="41" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>26</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="175" spans="1:19" ht="15.75" customHeight="1" thickTop="1">
       <c r="A175" s="46" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B175" s="44" t="s">
         <v>19</v>
@@ -13493,28 +13493,28 @@
     </row>
     <row r="176" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A176" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="K176" s="3" t="s">
         <v>24</v>
@@ -13543,25 +13543,25 @@
     </row>
     <row r="177" spans="1:19" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F177" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="J177" s="75" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="M177" s="3" t="s">
         <v>26</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="178" spans="1:19" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>19</v>
@@ -13599,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="I178" s="41" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="J178" s="41" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>215</v>
@@ -13631,25 +13631,25 @@
     </row>
     <row r="179" spans="1:19" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I179" s="41" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="J179" s="41" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="M179" s="3" t="s">
         <v>26</v>
@@ -13672,25 +13672,25 @@
     </row>
     <row r="180" spans="1:19" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="F180" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I180" s="41" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="J180" s="36" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="M180" s="3" t="s">
         <v>26</v>
@@ -13713,25 +13713,25 @@
     </row>
     <row r="181" spans="1:19" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="D181" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="F181" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I181" s="41" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="J181" s="41" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="M181" s="3" t="s">
         <v>26</v>
@@ -13754,25 +13754,25 @@
     </row>
     <row r="182" spans="1:19" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="D182" s="41" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="F182" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I182" s="41" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="J182" s="36" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="M182" s="3" t="s">
         <v>26</v>
@@ -13795,25 +13795,25 @@
     </row>
     <row r="183" spans="1:19" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="D183" s="41" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I183" s="41" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="J183" s="45" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="M183" s="3" t="s">
         <v>26</v>
@@ -13836,22 +13836,22 @@
     </row>
     <row r="184" spans="1:19" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F184" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I184" s="41" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="M184" s="3" t="s">
         <v>26</v>
@@ -13874,31 +13874,31 @@
     </row>
     <row r="185" spans="1:19" ht="15.75" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="D185" s="41" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F185" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I185" s="41" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="J185" s="41" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K185" s="50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L185" t="s">
         <v>1239</v>
-      </c>
-      <c r="K185" s="50" t="s">
-        <v>1240</v>
-      </c>
-      <c r="L185" t="s">
-        <v>1247</v>
       </c>
       <c r="M185" s="3" t="s">
         <v>26</v>
@@ -13921,25 +13921,25 @@
     </row>
     <row r="186" spans="1:19" ht="15.75" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="F186" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="M186" s="3" t="s">
         <v>26</v>
@@ -13962,22 +13962,22 @@
     </row>
     <row r="187" spans="1:19" ht="15.75" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F187" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I187" s="41" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="M187" s="3" t="s">
         <v>26</v>
@@ -14000,22 +14000,22 @@
     </row>
     <row r="188" spans="1:19" ht="15.75" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I188" s="41" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="M188" s="3" t="s">
         <v>26</v>
@@ -14038,22 +14038,22 @@
     </row>
     <row r="189" spans="1:19" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C189" s="41" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D189" s="41" t="s">
         <v>1160</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>1168</v>
       </c>
       <c r="F189" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I189" s="41" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>215</v>
@@ -14082,22 +14082,22 @@
     </row>
     <row r="190" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A190" s="8" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="F190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I190" s="41" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="M190" s="3" t="s">
         <v>26</v>
@@ -14179,7 +14179,7 @@
         <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="D192" t="s">
         <v>712</v>
@@ -14188,13 +14188,13 @@
         <v>1</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>24</v>
@@ -14241,7 +14241,7 @@
         <v>298</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="J193" s="3" t="s">
         <v>302</v>
@@ -14279,22 +14279,22 @@
         <v>19</v>
       </c>
       <c r="C194" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>24</v>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="M195" s="3" t="s">
         <v>26</v>
@@ -14367,20 +14367,20 @@
         <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F196" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G196" s="43"/>
       <c r="I196" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="J196" s="41" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="M196" s="3" t="s">
         <v>26</v>
@@ -14409,20 +14409,20 @@
         <v>19</v>
       </c>
       <c r="C197" s="41" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F197" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G197" s="43"/>
       <c r="I197" s="3" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="J197" s="36" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="M197" s="3" t="s">
         <v>26</v>
@@ -14451,17 +14451,17 @@
         <v>19</v>
       </c>
       <c r="C198" s="41" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="D198" s="41" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F198" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G198" s="43"/>
       <c r="I198" s="41" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="K198" s="3" t="s">
         <v>261</v>
@@ -14496,17 +14496,17 @@
         <v>19</v>
       </c>
       <c r="C199" s="41" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="D199" s="41" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="F199" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G199" s="43"/>
       <c r="I199" s="41" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="K199" s="3" t="s">
         <v>261</v>
@@ -14541,17 +14541,17 @@
         <v>19</v>
       </c>
       <c r="C200" s="41" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="F200" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G200" s="43"/>
       <c r="I200" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="K200" s="3" t="s">
         <v>261</v>
@@ -14586,17 +14586,17 @@
         <v>19</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F201" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G201" s="43"/>
       <c r="I201" s="41" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>55</v>
@@ -14820,25 +14820,25 @@
         <v>457</v>
       </c>
       <c r="AA1" s="81" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="AB1" s="81" t="s">
         <v>108</v>
       </c>
       <c r="AC1" s="93" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="AD1" s="93" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="AE1" s="82" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="AF1" s="82" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="AG1" s="83" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="16">
@@ -14924,22 +14924,22 @@
         <v>758</v>
       </c>
       <c r="AB2" s="36" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="AC2" s="75" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="AD2" s="76" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="AE2" s="75" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="AF2" s="75" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AG2" s="76" t="s">
         <v>1225</v>
-      </c>
-      <c r="AG2" s="76" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16">
@@ -15025,22 +15025,22 @@
         <v>775</v>
       </c>
       <c r="AB3" s="36" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="AC3" s="36" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="AD3" s="72" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="AE3" s="36" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="AF3" s="36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AG3" s="72" t="s">
         <v>1226</v>
-      </c>
-      <c r="AG3" s="72" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21" customHeight="1">
@@ -15114,22 +15114,22 @@
         <v>792</v>
       </c>
       <c r="AB4" s="36" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="AC4" s="36" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="AD4" s="35" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="AE4" s="36" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="AF4" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG4" s="35" t="s">
         <v>1227</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16">
@@ -15197,22 +15197,22 @@
         <v>807</v>
       </c>
       <c r="AB5" s="36" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="AC5" s="36" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="AD5" s="35" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="AE5" s="36" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="AF5" s="36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG5" s="35" t="s">
         <v>1228</v>
-      </c>
-      <c r="AG5" s="35" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16">
@@ -15270,22 +15270,22 @@
         <v>819</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="AC6" s="36" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="AE6" s="36" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="AF6" s="36" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AG6" s="35" t="s">
         <v>1229</v>
-      </c>
-      <c r="AG6" s="35" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16">
@@ -15337,18 +15337,18 @@
         <v>111</v>
       </c>
       <c r="AB7" s="36" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="AC7" s="36" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
       <c r="AF7" s="36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AG7" s="35" t="s">
         <v>1230</v>
-      </c>
-      <c r="AG7" s="35" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16">
@@ -26275,8 +26275,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26309,16 +26309,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
         <v>971</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>972</v>
-      </c>
-      <c r="D2" t="s">
-        <v>973</v>
-      </c>
-      <c r="E2" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -26326,16 +26326,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>975</v>
+        <v>1257</v>
       </c>
       <c r="C3" t="s">
-        <v>976</v>
+        <v>1258</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -26343,16 +26343,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>977</v>
+        <v>1259</v>
       </c>
       <c r="C4" t="s">
-        <v>978</v>
+        <v>1260</v>
       </c>
       <c r="D4" t="s">
         <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -26360,16 +26360,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>979</v>
+        <v>1261</v>
       </c>
       <c r="C5" t="s">
-        <v>980</v>
+        <v>1262</v>
       </c>
       <c r="D5" t="s">
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -26404,10 +26404,10 @@
         <v>969</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -26415,7 +26415,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -26429,7 +26429,7 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -26445,7 +26445,7 @@
         <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -26453,7 +26453,7 @@
         <v>242</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -26461,7 +26461,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -26469,7 +26469,7 @@
         <v>463</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -26477,7 +26477,7 @@
         <v>543</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -26485,7 +26485,7 @@
         <v>559</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -26493,7 +26493,7 @@
         <v>661</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -26501,7 +26501,7 @@
         <v>672</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
@@ -26509,18 +26509,18 @@
         <v>548</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C13" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A14" s="46" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" thickTop="1">
@@ -26558,7 +26558,7 @@
         <v>968</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26568,12 +26568,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -26606,10 +26606,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
@@ -26617,21 +26617,21 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1">
@@ -26639,43 +26639,43 @@
         <v>136</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
@@ -26683,7 +26683,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -26692,16 +26692,16 @@
         <v>103</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="22"/>
     </row>
@@ -26710,63 +26710,63 @@
         <v>261</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
@@ -26774,21 +26774,21 @@
         <v>706</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1">
@@ -26796,25 +26796,25 @@
         <v>415</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="C21" s="22"/>
     </row>
@@ -26823,41 +26823,41 @@
         <v>403</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1">
@@ -26865,10 +26865,10 @@
         <v>215</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1">
@@ -26876,10 +26876,10 @@
         <v>426</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1">
@@ -26887,10 +26887,10 @@
         <v>56</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1">
@@ -26898,10 +26898,10 @@
         <v>643</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1">
@@ -26909,43 +26909,43 @@
         <v>707</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1">
@@ -26953,21 +26953,21 @@
         <v>117</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1">
       <c r="A35" s="26" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1">
@@ -26975,7 +26975,7 @@
         <v>709</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="C36" s="27"/>
     </row>
@@ -26984,7 +26984,7 @@
         <v>91</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="C37" s="22"/>
     </row>
@@ -26993,7 +26993,7 @@
         <v>124</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="C38" s="27"/>
     </row>
@@ -27002,7 +27002,7 @@
         <v>130</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="C39" s="22"/>
     </row>
@@ -27011,7 +27011,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="C40" s="22"/>
     </row>
@@ -27020,52 +27020,52 @@
         <v>154</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C42" s="27"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C46" s="22"/>
     </row>
@@ -27074,16 +27074,16 @@
         <v>241</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C47" s="27"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="C48" s="22"/>
     </row>
@@ -27092,61 +27092,61 @@
         <v>710</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1">
       <c r="A50" s="26" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C50" s="27"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="C51" s="27"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="C53" s="27"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C55" s="27"/>
     </row>
@@ -27155,25 +27155,25 @@
         <v>233</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C56" s="27"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C57" s="27"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C58" s="27"/>
     </row>
@@ -27182,16 +27182,16 @@
         <v>173</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" ht="17">
       <c r="A60" s="51" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="C60" s="52"/>
     </row>
@@ -27228,10 +27228,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B2" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27247,7 +27247,7 @@
         <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -27290,18 +27290,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B2" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B3" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -27334,7 +27334,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -27342,7 +27342,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27350,31 +27350,31 @@
         <v>162</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="70" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="70" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="85" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -27387,10 +27387,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="70" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -27435,26 +27435,26 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="70" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="36" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="70" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/single_cell/singlecell_schema_main_v0.4.xlsx
+++ b/single_cell/singlecell_schema_main_v0.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29E95C-7062-CF4D-9DCE-057E71BEF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997282C-88A1-944D-B9F8-98228886D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="1263">
   <si>
     <t>component_name</t>
   </si>
@@ -5343,10 +5343,10 @@
   </sheetPr>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="K171" sqref="K171"/>
+      <selection pane="topRight" activeCell="L160" sqref="L160:L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -6908,9 +6908,7 @@
         <v>190</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
         <v>26</v>
       </c>
@@ -7087,9 +7085,7 @@
         <v>205</v>
       </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
         <v>26</v>
       </c>
@@ -7229,9 +7225,7 @@
         <v>220</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
         <v>26</v>
       </c>
@@ -7275,9 +7269,7 @@
         <v>224</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
         <v>26</v>
       </c>
@@ -7321,9 +7313,7 @@
         <v>228</v>
       </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
         <v>26</v>
       </c>
@@ -7878,9 +7868,7 @@
         <v>269</v>
       </c>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
         <v>26</v>
       </c>
@@ -7924,9 +7912,7 @@
         <v>273</v>
       </c>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
         <v>26</v>
       </c>
@@ -7970,9 +7956,7 @@
         <v>277</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
         <v>26</v>
       </c>
@@ -8016,9 +8000,7 @@
         <v>281</v>
       </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
         <v>26</v>
       </c>
@@ -8062,9 +8044,7 @@
         <v>285</v>
       </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
         <v>26</v>
       </c>
@@ -8108,9 +8088,7 @@
         <v>289</v>
       </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
         <v>26</v>
       </c>
@@ -8202,9 +8180,7 @@
         <v>296</v>
       </c>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
         <v>26</v>
       </c>
@@ -8488,9 +8464,7 @@
         <v>308</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
         <v>26</v>
       </c>
@@ -8589,9 +8563,7 @@
         <v>318</v>
       </c>
       <c r="K69" s="3"/>
-      <c r="L69" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
         <v>26</v>
       </c>
@@ -8731,9 +8703,7 @@
         <v>330</v>
       </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
         <v>26</v>
       </c>
@@ -8777,9 +8747,7 @@
         <v>334</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
         <v>26</v>
       </c>
@@ -9043,9 +9011,7 @@
         <v>358</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
         <v>26</v>
       </c>
@@ -9089,9 +9055,7 @@
         <v>362</v>
       </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
         <v>26</v>
       </c>
@@ -9135,9 +9099,7 @@
         <v>366</v>
       </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
         <v>26</v>
       </c>
@@ -9181,9 +9143,7 @@
         <v>370</v>
       </c>
       <c r="K82" s="3"/>
-      <c r="L82" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
         <v>26</v>
       </c>
@@ -9271,9 +9231,7 @@
         <v>378</v>
       </c>
       <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
         <v>26</v>
       </c>
@@ -9317,9 +9275,7 @@
         <v>382</v>
       </c>
       <c r="K85" s="3"/>
-      <c r="L85" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
         <v>26</v>
       </c>
@@ -9411,9 +9367,7 @@
         <v>390</v>
       </c>
       <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
         <v>26</v>
       </c>
@@ -9684,9 +9638,7 @@
         <v>300000</v>
       </c>
       <c r="K93" s="3"/>
-      <c r="L93" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
         <v>26</v>
       </c>
@@ -9770,9 +9722,7 @@
         <v>432</v>
       </c>
       <c r="K95" s="3"/>
-      <c r="L95" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
         <v>26</v>
       </c>
@@ -9812,9 +9762,7 @@
         <v>437</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
         <v>26</v>
       </c>
@@ -9854,9 +9802,7 @@
         <v>442</v>
       </c>
       <c r="K97" s="3"/>
-      <c r="L97" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
         <v>26</v>
       </c>
@@ -10265,9 +10211,7 @@
         <v>472</v>
       </c>
       <c r="K106" s="3"/>
-      <c r="L106" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L106" s="3"/>
       <c r="M106" s="3" t="s">
         <v>26</v>
       </c>
@@ -10316,9 +10260,7 @@
         <v>478</v>
       </c>
       <c r="K107" s="3"/>
-      <c r="L107" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
         <v>26</v>
       </c>
@@ -10889,9 +10831,7 @@
         <v>529</v>
       </c>
       <c r="K119" s="3"/>
-      <c r="L119" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
         <v>26</v>
       </c>
@@ -10975,9 +10915,7 @@
         <v>40</v>
       </c>
       <c r="K121" s="3"/>
-      <c r="L121" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
         <v>26</v>
       </c>
@@ -11114,9 +11052,7 @@
         <v>547</v>
       </c>
       <c r="K124" s="3"/>
-      <c r="L124" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
         <v>26</v>
       </c>
@@ -11160,9 +11096,7 @@
         <v>552</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
         <v>26</v>
       </c>
@@ -11347,9 +11281,7 @@
         <v>563</v>
       </c>
       <c r="K129" s="3"/>
-      <c r="L129" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
         <v>26</v>
       </c>
@@ -11393,9 +11325,7 @@
         <v>567</v>
       </c>
       <c r="K130" s="3"/>
-      <c r="L130" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L130" s="3"/>
       <c r="M130" s="3" t="s">
         <v>26</v>
       </c>
@@ -11439,9 +11369,7 @@
         <v>571</v>
       </c>
       <c r="K131" s="3"/>
-      <c r="L131" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L131" s="3"/>
       <c r="M131" s="3" t="s">
         <v>26</v>
       </c>
@@ -11485,9 +11413,7 @@
         <v>575</v>
       </c>
       <c r="K132" s="3"/>
-      <c r="L132" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L132" s="3"/>
       <c r="M132" s="3" t="s">
         <v>26</v>
       </c>
@@ -11531,9 +11457,7 @@
         <v>579</v>
       </c>
       <c r="K133" s="3"/>
-      <c r="L133" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L133" s="3"/>
       <c r="M133" s="3" t="s">
         <v>26</v>
       </c>
@@ -11577,9 +11501,7 @@
         <v>583</v>
       </c>
       <c r="K134" s="3"/>
-      <c r="L134" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L134" s="3"/>
       <c r="M134" s="3" t="s">
         <v>26</v>
       </c>
@@ -11623,9 +11545,7 @@
         <v>587</v>
       </c>
       <c r="K135" s="3"/>
-      <c r="L135" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
         <v>26</v>
       </c>
@@ -11669,9 +11589,7 @@
         <v>591</v>
       </c>
       <c r="K136" s="3"/>
-      <c r="L136" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
         <v>26</v>
       </c>
@@ -11715,9 +11633,7 @@
         <v>595</v>
       </c>
       <c r="K137" s="3"/>
-      <c r="L137" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L137" s="3"/>
       <c r="M137" s="3" t="s">
         <v>26</v>
       </c>
@@ -11761,9 +11677,7 @@
         <v>599</v>
       </c>
       <c r="K138" s="3"/>
-      <c r="L138" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L138" s="3"/>
       <c r="M138" s="3" t="s">
         <v>26</v>
       </c>
@@ -11807,9 +11721,7 @@
         <v>603</v>
       </c>
       <c r="K139" s="3"/>
-      <c r="L139" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
         <v>26</v>
       </c>
@@ -11853,9 +11765,7 @@
         <v>607</v>
       </c>
       <c r="K140" s="3"/>
-      <c r="L140" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
         <v>26</v>
       </c>
@@ -11899,9 +11809,7 @@
         <v>610</v>
       </c>
       <c r="K141" s="3"/>
-      <c r="L141" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
         <v>26</v>
       </c>
@@ -11944,12 +11852,8 @@
       <c r="J142" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="K142" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
       <c r="M142" s="3" t="s">
         <v>26</v>
       </c>
@@ -11993,9 +11897,7 @@
         <v>618</v>
       </c>
       <c r="K143" s="3"/>
-      <c r="L143" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L143" s="3"/>
       <c r="M143" s="3" t="s">
         <v>26</v>
       </c>
@@ -12119,9 +12021,7 @@
         <v>632</v>
       </c>
       <c r="K146" s="3"/>
-      <c r="L146" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L146" s="3"/>
       <c r="M146" s="3" t="s">
         <v>26</v>
       </c>
@@ -12161,9 +12061,7 @@
         <v>637</v>
       </c>
       <c r="K147" s="3"/>
-      <c r="L147" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L147" s="3"/>
       <c r="M147" s="3" t="s">
         <v>26</v>
       </c>
@@ -12247,9 +12145,7 @@
         <v>649</v>
       </c>
       <c r="K149" s="3"/>
-      <c r="L149" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
         <v>26</v>
       </c>
@@ -12333,9 +12229,7 @@
         <v>659</v>
       </c>
       <c r="K151" s="3"/>
-      <c r="L151" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
         <v>85</v>
       </c>
@@ -12428,9 +12322,7 @@
         <v>665</v>
       </c>
       <c r="K153" s="3"/>
-      <c r="L153" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L153" s="3"/>
       <c r="M153" s="3" t="s">
         <v>26</v>
       </c>
@@ -12474,9 +12366,7 @@
         <v>668</v>
       </c>
       <c r="K154" s="3"/>
-      <c r="L154" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
         <v>26</v>
       </c>
@@ -12520,9 +12410,7 @@
         <v>671</v>
       </c>
       <c r="K155" s="3"/>
-      <c r="L155" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L155" s="3"/>
       <c r="M155" s="3" t="s">
         <v>26</v>
       </c>
@@ -12569,9 +12457,7 @@
         <v>676</v>
       </c>
       <c r="K156" s="44"/>
-      <c r="L156" s="44" t="s">
-        <v>92</v>
-      </c>
+      <c r="L156" s="44"/>
       <c r="M156" s="44" t="s">
         <v>26</v>
       </c>
@@ -12615,9 +12501,7 @@
         <v>680</v>
       </c>
       <c r="K157" s="3"/>
-      <c r="L157" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L157" s="3"/>
       <c r="M157" s="3" t="s">
         <v>26</v>
       </c>
@@ -12709,9 +12593,7 @@
         <v>688</v>
       </c>
       <c r="K159" s="3"/>
-      <c r="L159" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
         <v>26</v>
       </c>
@@ -12755,9 +12637,7 @@
         <v>692</v>
       </c>
       <c r="K160" s="3"/>
-      <c r="L160" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L160" s="3"/>
       <c r="M160" s="3" t="s">
         <v>26</v>
       </c>
@@ -12801,9 +12681,7 @@
         <v>696</v>
       </c>
       <c r="K161" s="3"/>
-      <c r="L161" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
         <v>26</v>
       </c>
@@ -12847,9 +12725,7 @@
         <v>700</v>
       </c>
       <c r="K162" s="3"/>
-      <c r="L162" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L162" s="3"/>
       <c r="M162" s="3" t="s">
         <v>26</v>
       </c>
@@ -12893,9 +12769,7 @@
         <v>704</v>
       </c>
       <c r="K163" s="3"/>
-      <c r="L163" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
         <v>26</v>
       </c>
@@ -26275,7 +26149,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>

--- a/single_cell/singlecell_schema_main_v0.4.xlsx
+++ b/single_cell/singlecell_schema_main_v0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ECE6A-7752-1C46-BCA7-38D90EEB31E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428CF79-5F0C-7249-908E-17DAFB5DC95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18020" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1265">
   <si>
     <t>component_name</t>
   </si>
@@ -668,9 +668,6 @@
     <t>protocols_io_reference</t>
   </si>
   <si>
-    <t>Protocols Io Reference</t>
-  </si>
-  <si>
     <t>isolation_protocol_refence</t>
   </si>
   <si>
@@ -1182,9 +1179,6 @@
   </si>
   <si>
     <t>Identifier for the 96-well plate used in sample preparation.</t>
-  </si>
-  <si>
-    <t>plate123</t>
   </si>
   <si>
     <t>well_row</t>
@@ -3850,9 +3844,6 @@
   </si>
   <si>
     <t>Expected a date in YYYY-MM-DD (year-month-day) format.</t>
-  </si>
-  <si>
-    <t>Expected text with no leading or trailing spaces, followed by a space and a tag in the format [Letters:Numbers].</t>
   </si>
   <si>
     <t>Expected a value that contains at least one lowercase letter.</t>
@@ -4005,6 +3996,18 @@
       </rPr>
       <t>+</t>
     </r>
+  </si>
+  <si>
+    <t>PLT001</t>
+  </si>
+  <si>
+    <t>^[A-Z]{2,}:\d+$</t>
+  </si>
+  <si>
+    <t>Protocols IO Reference</t>
+  </si>
+  <si>
+    <t>Expected text with no leading or trailing spaces, followed by a space and a tag in the format Letters:Numbers.</t>
   </si>
 </sst>
 </file>
@@ -5372,9 +5375,9 @@
   <dimension ref="A1:S203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A166" sqref="A166:XFD166"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5419,7 +5422,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -5478,13 +5481,13 @@
         <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>24</v>
@@ -5712,7 +5715,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>24</v>
@@ -5885,7 +5888,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>24</v>
@@ -5926,10 +5929,10 @@
         <v>79</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>80</v>
+        <v>1262</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1231</v>
+        <v>1264</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>81</v>
@@ -5973,7 +5976,7 @@
         <v>87</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>24</v>
@@ -6011,7 +6014,7 @@
         <v>92</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -6055,7 +6058,7 @@
         <v>98</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>24</v>
@@ -6094,7 +6097,7 @@
         <v>101</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -6132,7 +6135,7 @@
         <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -6181,13 +6184,13 @@
         <v>22</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>24</v>
@@ -6235,7 +6238,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>24</v>
@@ -6283,7 +6286,7 @@
         <v>117</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>24</v>
@@ -6333,7 +6336,7 @@
         <v>123</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>24</v>
@@ -6383,7 +6386,7 @@
         <v>129</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>24</v>
@@ -6433,7 +6436,7 @@
         <v>135</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>24</v>
@@ -6529,7 +6532,7 @@
         <v>146</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>24</v>
@@ -6578,13 +6581,13 @@
         <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>24</v>
@@ -6626,13 +6629,13 @@
         <v>152</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>24</v>
@@ -6659,7 +6662,7 @@
         <v>148</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>153</v>
@@ -6683,7 +6686,7 @@
         <v>135</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>24</v>
@@ -6712,7 +6715,7 @@
         <v>148</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>160</v>
@@ -6736,7 +6739,7 @@
         <v>163</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -6765,7 +6768,7 @@
         <v>148</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>165</v>
@@ -6834,13 +6837,13 @@
         <v>22</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>24</v>
@@ -6879,19 +6882,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>174</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>24</v>
@@ -7066,7 +7069,7 @@
         <v>189</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -7145,25 +7148,25 @@
         <v>194</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="K38" t="s">
         <v>87</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>24</v>
@@ -7193,28 +7196,28 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
         <v>199</v>
       </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="K39" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>24</v>
@@ -7238,19 +7241,19 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -7282,19 +7285,19 @@
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -7326,19 +7329,19 @@
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -7370,34 +7373,34 @@
         <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="P43" s="31"/>
       <c r="Q43" s="56"/>
@@ -7414,10 +7417,10 @@
         <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>179</v>
@@ -7426,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -7455,25 +7458,25 @@
         <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" t="s">
         <v>225</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>24</v>
@@ -7491,7 +7494,7 @@
     </row>
     <row r="46" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -7514,13 +7517,13 @@
         <v>22</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>24</v>
@@ -7544,34 +7547,34 @@
     </row>
     <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>24</v>
@@ -7595,7 +7598,7 @@
     </row>
     <row r="48" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -7613,16 +7616,16 @@
         <v>148</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>24</v>
@@ -7646,7 +7649,7 @@
     </row>
     <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>19</v>
@@ -7667,13 +7670,13 @@
         <v>174</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>24</v>
@@ -7697,25 +7700,25 @@
     </row>
     <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -7741,29 +7744,29 @@
     </row>
     <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>24</v>
@@ -7781,34 +7784,34 @@
     </row>
     <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
@@ -7832,28 +7835,28 @@
     </row>
     <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -7875,25 +7878,25 @@
     </row>
     <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -7919,25 +7922,25 @@
     </row>
     <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -7963,25 +7966,25 @@
     </row>
     <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -8007,25 +8010,25 @@
     </row>
     <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -8051,25 +8054,25 @@
     </row>
     <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -8095,25 +8098,25 @@
     </row>
     <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -8139,31 +8142,31 @@
     </row>
     <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>24</v>
@@ -8187,25 +8190,25 @@
     </row>
     <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -8231,31 +8234,31 @@
     </row>
     <row r="62" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>24</v>
@@ -8273,7 +8276,7 @@
     </row>
     <row r="63" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -8296,13 +8299,13 @@
         <v>22</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>24</v>
@@ -8326,34 +8329,34 @@
     </row>
     <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>24</v>
@@ -8377,34 +8380,34 @@
     </row>
     <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>24</v>
@@ -8428,7 +8431,7 @@
     </row>
     <row r="66" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>19</v>
@@ -8446,16 +8449,16 @@
         <v>148</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>24</v>
@@ -8471,25 +8474,25 @@
     </row>
     <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="F67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -8500,7 +8503,7 @@
         <v>25</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P67" s="31" t="s">
         <v>26</v>
@@ -8517,31 +8520,31 @@
     </row>
     <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="K68" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>24</v>
@@ -8550,7 +8553,7 @@
         <v>25</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P68" s="31" t="s">
         <v>26</v>
@@ -8567,28 +8570,28 @@
     </row>
     <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -8614,31 +8617,31 @@
     </row>
     <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="F70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="K70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>24</v>
@@ -8662,31 +8665,31 @@
     </row>
     <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="F71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="K71" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>24</v>
@@ -8710,25 +8713,25 @@
     </row>
     <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -8754,25 +8757,25 @@
     </row>
     <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="F73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -8798,25 +8801,25 @@
     </row>
     <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I74" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -8842,25 +8845,25 @@
     </row>
     <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="F75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I75" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -8886,25 +8889,25 @@
     </row>
     <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -8930,25 +8933,25 @@
     </row>
     <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="F77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I77" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -8974,25 +8977,25 @@
     </row>
     <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I78" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -9018,25 +9021,25 @@
     </row>
     <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="F79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I79" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -9062,25 +9065,25 @@
     </row>
     <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="F80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -9106,25 +9109,25 @@
     </row>
     <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="F81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -9150,25 +9153,25 @@
     </row>
     <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -9194,25 +9197,25 @@
     </row>
     <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -9238,25 +9241,25 @@
     </row>
     <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -9282,25 +9285,25 @@
     </row>
     <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -9326,31 +9329,31 @@
     </row>
     <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>367</v>
+        <v>1261</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>24</v>
@@ -9374,25 +9377,25 @@
     </row>
     <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -9418,31 +9421,31 @@
     </row>
     <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>24</v>
@@ -9466,25 +9469,25 @@
     </row>
     <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -9510,34 +9513,34 @@
     </row>
     <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J90" t="s">
+        <v>381</v>
+      </c>
+      <c r="K90" t="s">
         <v>382</v>
       </c>
-      <c r="J90" t="s">
-        <v>383</v>
-      </c>
-      <c r="K90" t="s">
-        <v>384</v>
-      </c>
       <c r="L90" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>24</v>
@@ -9546,7 +9549,7 @@
         <v>25</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P90" s="31"/>
       <c r="Q90" s="56" t="s">
@@ -9557,31 +9560,31 @@
     </row>
     <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K91" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L91" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>24</v>
@@ -9590,7 +9593,7 @@
         <v>25</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P91" s="31"/>
       <c r="Q91" s="56" t="s">
@@ -9601,31 +9604,31 @@
     </row>
     <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="L92" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>24</v>
@@ -9634,7 +9637,7 @@
         <v>25</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P92" s="31"/>
       <c r="Q92" s="56" t="s">
@@ -9645,22 +9648,22 @@
     </row>
     <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J93" s="3">
         <v>300000</v>
@@ -9674,7 +9677,7 @@
         <v>25</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P93" s="31"/>
       <c r="Q93" s="56" t="s">
@@ -9685,31 +9688,31 @@
     </row>
     <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="L94" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>24</v>
@@ -9718,7 +9721,7 @@
         <v>25</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P94" s="31"/>
       <c r="Q94" s="56" t="s">
@@ -9729,25 +9732,25 @@
     </row>
     <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -9758,7 +9761,7 @@
         <v>25</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P95" s="31"/>
       <c r="Q95" s="56" t="s">
@@ -9769,25 +9772,25 @@
     </row>
     <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -9798,7 +9801,7 @@
         <v>25</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P96" s="31"/>
       <c r="Q96" s="56" t="s">
@@ -9809,25 +9812,25 @@
     </row>
     <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -9838,7 +9841,7 @@
         <v>25</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P97" s="31"/>
       <c r="Q97" s="56" t="s">
@@ -9849,31 +9852,31 @@
     </row>
     <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F98" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J98" s="91" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>24</v>
@@ -9891,28 +9894,28 @@
     </row>
     <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>24</v>
@@ -9930,22 +9933,22 @@
     </row>
     <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -9971,28 +9974,28 @@
     </row>
     <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -10018,28 +10021,28 @@
     </row>
     <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J102" s="68" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -10065,28 +10068,28 @@
     </row>
     <row r="103" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J103" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -10112,7 +10115,7 @@
     </row>
     <row r="104" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>19</v>
@@ -10135,13 +10138,13 @@
         <v>22</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>24</v>
@@ -10165,34 +10168,34 @@
     </row>
     <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="F105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>24</v>
@@ -10201,7 +10204,7 @@
         <v>25</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P105" s="31" t="s">
         <v>26</v>
@@ -10218,25 +10221,25 @@
     </row>
     <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -10247,7 +10250,7 @@
         <v>25</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P106" s="31" t="s">
         <v>26</v>
@@ -10264,28 +10267,28 @@
     </row>
     <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="F107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -10296,7 +10299,7 @@
         <v>60</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P107" s="31" t="s">
         <v>26</v>
@@ -10313,28 +10316,28 @@
     </row>
     <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="F108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -10345,7 +10348,7 @@
         <v>60</v>
       </c>
       <c r="O108" s="40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P108" s="31" t="s">
         <v>26</v>
@@ -10362,25 +10365,25 @@
     </row>
     <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -10406,31 +10409,31 @@
     </row>
     <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>24</v>
@@ -10454,31 +10457,31 @@
     </row>
     <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>24</v>
@@ -10502,25 +10505,25 @@
     </row>
     <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -10531,7 +10534,7 @@
         <v>60</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P112" s="31" t="s">
         <v>27</v>
@@ -10548,31 +10551,31 @@
     </row>
     <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>24</v>
@@ -10581,7 +10584,7 @@
         <v>25</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P113" s="31" t="s">
         <v>27</v>
@@ -10598,31 +10601,31 @@
     </row>
     <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F114" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>24</v>
@@ -10631,7 +10634,7 @@
         <v>25</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P114" s="31" t="s">
         <v>27</v>
@@ -10648,25 +10651,25 @@
     </row>
     <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -10677,7 +10680,7 @@
         <v>60</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P115" s="31" t="s">
         <v>26</v>
@@ -10694,31 +10697,31 @@
     </row>
     <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J116" s="3">
         <v>6</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>24</v>
@@ -10727,7 +10730,7 @@
         <v>25</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P116" s="31" t="s">
         <v>27</v>
@@ -10744,31 +10747,31 @@
     </row>
     <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>24</v>
@@ -10777,7 +10780,7 @@
         <v>25</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>27</v>
@@ -10794,31 +10797,31 @@
     </row>
     <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J118" s="3">
         <v>50</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>24</v>
@@ -10827,7 +10830,7 @@
         <v>25</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P118" s="31"/>
       <c r="Q118" s="56" t="s">
@@ -10838,25 +10841,25 @@
     </row>
     <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -10867,7 +10870,7 @@
         <v>25</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P119" s="31"/>
       <c r="Q119" s="56" t="s">
@@ -10878,31 +10881,31 @@
     </row>
     <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J120" s="3">
         <v>20</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>24</v>
@@ -10911,7 +10914,7 @@
         <v>25</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P120" s="31"/>
       <c r="Q120" s="56" t="s">
@@ -10922,22 +10925,22 @@
     </row>
     <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J121" s="3">
         <v>40</v>
@@ -10951,7 +10954,7 @@
         <v>25</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P121" s="31"/>
       <c r="Q121" s="56" t="s">
@@ -10962,31 +10965,31 @@
     </row>
     <row r="122" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J122" s="3">
         <v>2</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>24</v>
@@ -10995,7 +10998,7 @@
         <v>25</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P122" s="29"/>
       <c r="Q122" s="57" t="s">
@@ -11006,7 +11009,7 @@
     </row>
     <row r="123" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>19</v>
@@ -11029,13 +11032,13 @@
         <v>22</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>24</v>
@@ -11059,25 +11062,25 @@
     </row>
     <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -11085,7 +11088,7 @@
         <v>24</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O124" s="3"/>
       <c r="P124" s="31" t="s">
@@ -11103,25 +11106,25 @@
     </row>
     <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F125" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -11147,25 +11150,25 @@
     </row>
     <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -11191,25 +11194,25 @@
     </row>
     <row r="127" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J127" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -11235,7 +11238,7 @@
     </row>
     <row r="128" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>19</v>
@@ -11258,13 +11261,13 @@
         <v>22</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>24</v>
@@ -11288,25 +11291,25 @@
     </row>
     <row r="129" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F129" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -11332,25 +11335,25 @@
     </row>
     <row r="130" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -11376,25 +11379,25 @@
     </row>
     <row r="131" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F131" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -11420,25 +11423,25 @@
     </row>
     <row r="132" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -11464,25 +11467,25 @@
     </row>
     <row r="133" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -11508,25 +11511,25 @@
     </row>
     <row r="134" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -11552,25 +11555,25 @@
     </row>
     <row r="135" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F135" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -11596,25 +11599,25 @@
     </row>
     <row r="136" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F136" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -11640,25 +11643,25 @@
     </row>
     <row r="137" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -11684,25 +11687,25 @@
     </row>
     <row r="138" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F138" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -11728,25 +11731,25 @@
     </row>
     <row r="139" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F139" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -11772,25 +11775,25 @@
     </row>
     <row r="140" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F140" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -11816,25 +11819,25 @@
     </row>
     <row r="141" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F141" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -11860,25 +11863,25 @@
     </row>
     <row r="142" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F142" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -11904,25 +11907,25 @@
     </row>
     <row r="143" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F143" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -11933,7 +11936,7 @@
         <v>25</v>
       </c>
       <c r="O143" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P143" s="31"/>
       <c r="Q143" s="56" t="s">
@@ -11944,31 +11947,31 @@
     </row>
     <row r="144" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J144" s="3">
         <v>5</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M144" s="3" t="s">
         <v>24</v>
@@ -11977,7 +11980,7 @@
         <v>25</v>
       </c>
       <c r="O144" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P144" s="31"/>
       <c r="Q144" s="56" t="s">
@@ -11988,25 +11991,25 @@
     </row>
     <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -12017,7 +12020,7 @@
         <v>60</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P145" s="31"/>
       <c r="Q145" s="56" t="s">
@@ -12028,25 +12031,25 @@
     </row>
     <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F146" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -12057,7 +12060,7 @@
         <v>25</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P146" s="31"/>
       <c r="Q146" s="56" t="s">
@@ -12068,25 +12071,25 @@
     </row>
     <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F147" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -12097,7 +12100,7 @@
         <v>25</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="P147" s="31"/>
       <c r="Q147" s="56" t="s">
@@ -12108,31 +12111,31 @@
     </row>
     <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F148" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I148" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K148" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="J148" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="L148" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="M148" s="3" t="s">
         <v>24</v>
@@ -12141,7 +12144,7 @@
         <v>25</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P148" s="31"/>
       <c r="Q148" s="56" t="s">
@@ -12152,25 +12155,25 @@
     </row>
     <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -12181,7 +12184,7 @@
         <v>25</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P149" s="31"/>
       <c r="Q149" s="56" t="s">
@@ -12192,31 +12195,31 @@
     </row>
     <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F150" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>24</v>
@@ -12225,7 +12228,7 @@
         <v>25</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P150" s="31"/>
       <c r="Q150" s="56" t="s">
@@ -12236,25 +12239,25 @@
     </row>
     <row r="151" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F151" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -12265,7 +12268,7 @@
         <v>25</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P151" s="29"/>
       <c r="Q151" s="57" t="s">
@@ -12276,7 +12279,7 @@
     </row>
     <row r="152" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>19</v>
@@ -12299,13 +12302,13 @@
         <v>22</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>24</v>
@@ -12329,25 +12332,25 @@
     </row>
     <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F153" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -12373,25 +12376,25 @@
     </row>
     <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F154" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -12417,25 +12420,25 @@
     </row>
     <row r="155" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F155" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -12461,16 +12464,16 @@
     </row>
     <row r="156" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A156" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B156" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="44" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D156" s="44" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E156" s="44"/>
       <c r="F156" s="46" t="b">
@@ -12479,10 +12482,10 @@
       <c r="G156" s="46"/>
       <c r="H156" s="46"/>
       <c r="I156" s="44" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J156" s="44" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K156" s="44"/>
       <c r="L156" s="44"/>
@@ -12508,25 +12511,25 @@
     </row>
     <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F157" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -12552,31 +12555,31 @@
     </row>
     <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F158" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>24</v>
@@ -12600,25 +12603,25 @@
     </row>
     <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F159" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -12644,25 +12647,25 @@
     </row>
     <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F160" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -12688,25 +12691,25 @@
     </row>
     <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F161" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -12732,25 +12735,25 @@
     </row>
     <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F162" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -12776,25 +12779,25 @@
     </row>
     <row r="163" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F163" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -12820,7 +12823,7 @@
     </row>
     <row r="164" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>19</v>
@@ -12843,13 +12846,13 @@
         <v>22</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>24</v>
@@ -12873,34 +12876,34 @@
     </row>
     <row r="165" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>24</v>
@@ -12924,7 +12927,7 @@
     </row>
     <row r="166" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>19</v>
@@ -12942,16 +12945,16 @@
         <v>148</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>24</v>
@@ -12975,34 +12978,34 @@
     </row>
     <row r="167" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F167" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>24</v>
@@ -13026,34 +13029,34 @@
     </row>
     <row r="168" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F168" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="K168" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>24</v>
@@ -13077,25 +13080,25 @@
     </row>
     <row r="169" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F169" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -13103,7 +13106,7 @@
         <v>24</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O169" s="3"/>
       <c r="P169" s="31" t="s">
@@ -13121,25 +13124,25 @@
     </row>
     <row r="170" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F170" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -13147,7 +13150,7 @@
         <v>24</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O170" s="3"/>
       <c r="P170" s="31" t="s">
@@ -13165,25 +13168,25 @@
     </row>
     <row r="171" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F171" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
@@ -13209,25 +13212,25 @@
     </row>
     <row r="172" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F172" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
@@ -13253,31 +13256,31 @@
     </row>
     <row r="173" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F173" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J173" s="41" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>24</v>
@@ -13301,31 +13304,31 @@
     </row>
     <row r="174" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F174" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J174" s="93" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="M174" s="3" t="s">
         <v>24</v>
@@ -13349,25 +13352,25 @@
     </row>
     <row r="175" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -13375,7 +13378,7 @@
         <v>24</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O175" s="3"/>
       <c r="P175" s="31" t="s">
@@ -13393,7 +13396,7 @@
     </row>
     <row r="176" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A176" s="45" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B176" s="44" t="s">
         <v>19</v>
@@ -13416,13 +13419,13 @@
         <v>22</v>
       </c>
       <c r="J176" s="44" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K176" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L176" s="44" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M176" s="44" t="s">
         <v>24</v>
@@ -13446,34 +13449,34 @@
     </row>
     <row r="177" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F177" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K177" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M177" s="3" t="s">
         <v>24</v>
@@ -13496,25 +13499,25 @@
     </row>
     <row r="178" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F178" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="J178" s="97" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M178" s="3" t="s">
         <v>24</v>
@@ -13537,31 +13540,31 @@
     </row>
     <row r="179" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I179" s="41" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J179" s="15" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M179" s="3" t="s">
         <v>24</v>
@@ -13584,25 +13587,25 @@
     </row>
     <row r="180" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F180" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I180" s="41" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J180" s="93" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="M180" s="3" t="s">
         <v>24</v>
@@ -13625,25 +13628,25 @@
     </row>
     <row r="181" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F181" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I181" s="41" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J181" s="68" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="M181" s="3" t="s">
         <v>24</v>
@@ -13666,25 +13669,25 @@
     </row>
     <row r="182" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D182" s="41" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F182" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I182" s="41" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J182" s="95" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="M182" s="3" t="s">
         <v>24</v>
@@ -13707,25 +13710,25 @@
     </row>
     <row r="183" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D183" s="41" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I183" s="41" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J183" s="68" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="M183" s="3" t="s">
         <v>24</v>
@@ -13748,25 +13751,25 @@
     </row>
     <row r="184" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F184" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I184" s="41" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J184" s="94" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="M184" s="3" t="s">
         <v>24</v>
@@ -13789,22 +13792,22 @@
     </row>
     <row r="185" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D185" s="41" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F185" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I185" s="41" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J185" s="96"/>
       <c r="M185" s="3" t="s">
@@ -13828,31 +13831,31 @@
     </row>
     <row r="186" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F186" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J186" s="95">
         <v>2.5</v>
       </c>
       <c r="K186" s="98" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="L186" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="M186" s="3" t="s">
         <v>24</v>
@@ -13875,25 +13878,25 @@
     </row>
     <row r="187" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F187" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I187" s="41" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J187" s="33" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="M187" s="3" t="s">
         <v>24</v>
@@ -13916,22 +13919,22 @@
     </row>
     <row r="188" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I188" s="41" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J188" s="96"/>
       <c r="M188" s="3" t="s">
@@ -13955,22 +13958,22 @@
     </row>
     <row r="189" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F189" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I189" s="41" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J189" s="96"/>
       <c r="M189" s="3" t="s">
@@ -13994,29 +13997,29 @@
     </row>
     <row r="190" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I190" s="41" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M190" s="3" t="s">
         <v>24</v>
@@ -14039,22 +14042,22 @@
     </row>
     <row r="191" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F191" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I191" s="41" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J191" s="3"/>
       <c r="M191" s="3" t="s">
@@ -14078,7 +14081,7 @@
     </row>
     <row r="192" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>19</v>
@@ -14101,13 +14104,13 @@
         <v>22</v>
       </c>
       <c r="J192" s="44" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K192" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L192" s="44" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M192" s="44" t="s">
         <v>24</v>
@@ -14131,34 +14134,34 @@
     </row>
     <row r="193" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D193" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M193" s="3" t="s">
         <v>24</v>
@@ -14181,34 +14184,34 @@
     </row>
     <row r="194" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M194" s="3" t="s">
         <v>24</v>
@@ -14231,34 +14234,34 @@
     </row>
     <row r="195" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C195" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M195" s="3" t="s">
         <v>24</v>
@@ -14281,31 +14284,31 @@
     </row>
     <row r="196" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F196" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="M196" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N196" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P196" s="42" t="s">
         <v>26</v>
@@ -14322,32 +14325,32 @@
     </row>
     <row r="197" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F197" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G197" s="43"/>
       <c r="I197" s="41" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="J197" s="93" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="M197" s="3" t="s">
         <v>24</v>
@@ -14370,26 +14373,26 @@
     </row>
     <row r="198" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C198" s="41" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F198" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G198" s="43"/>
       <c r="I198" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="J198" s="68" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="M198" s="3" t="s">
         <v>24</v>
@@ -14412,32 +14415,32 @@
     </row>
     <row r="199" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C199" s="41" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D199" s="41" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F199" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G199" s="43"/>
       <c r="I199" s="41" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="J199" s="3">
         <v>4</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L199" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M199" s="3" t="s">
         <v>24</v>
@@ -14460,32 +14463,32 @@
     </row>
     <row r="200" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C200" s="41" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F200" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G200" s="43"/>
       <c r="I200" s="41" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J200" s="3">
         <v>50</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L200" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M200" s="3" t="s">
         <v>24</v>
@@ -14508,32 +14511,32 @@
     </row>
     <row r="201" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F201" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G201" s="43"/>
       <c r="I201" s="41" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="J201" s="3">
         <v>90</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L201" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M201" s="3" t="s">
         <v>24</v>
@@ -14556,23 +14559,23 @@
     </row>
     <row r="202" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C202" s="41" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D202" s="41" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F202" s="43" t="b">
         <v>0</v>
       </c>
       <c r="G202" s="43"/>
       <c r="I202" s="41" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="J202" s="3" t="s">
         <v>53</v>
@@ -14581,7 +14584,7 @@
         <v>54</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M202" s="3" t="s">
         <v>24</v>
@@ -14684,7 +14687,7 @@
   <dimension ref="A1:AG464"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+      <selection activeCell="AD2" sqref="AD2:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14728,52 +14731,52 @@
         <v>187</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K1" s="76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N1" s="76" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P1" s="76" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="R1" s="76" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="S1" s="76" t="s">
         <v>66</v>
@@ -14782,43 +14785,43 @@
         <v>90</v>
       </c>
       <c r="U1" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V1" s="78" t="s">
         <v>99</v>
       </c>
       <c r="W1" s="78" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="X1" s="78" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y1" s="78" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Z1" s="78" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AA1" s="79" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AB1" s="79" t="s">
         <v>102</v>
       </c>
       <c r="AC1" s="90" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AD1" s="90" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AE1" s="80" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AF1" s="80" t="s">
         <v>1118</v>
       </c>
-      <c r="AF1" s="80" t="s">
-        <v>1120</v>
-      </c>
       <c r="AG1" s="81" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.2">
@@ -14826,383 +14829,383 @@
         <v>59</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>719</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>720</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>721</v>
       </c>
       <c r="G2" s="33">
         <v>3</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="S2" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="T2" s="36" t="s">
         <v>724</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="U2" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>726</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>727</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="X2" s="36" t="s">
         <v>728</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>729</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Z2" s="68" t="s">
         <v>730</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="AA2" s="69" t="s">
         <v>731</v>
       </c>
-      <c r="Z2" s="68" t="s">
-        <v>732</v>
-      </c>
-      <c r="AA2" s="69" t="s">
-        <v>733</v>
-      </c>
       <c r="AB2" s="36" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AC2" s="73" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AD2" s="74" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AE2" s="73" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AF2" s="73" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AG2" s="74" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>737</v>
-      </c>
       <c r="E3" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G3" s="33">
         <v>5</v>
       </c>
       <c r="H3" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="L3" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="P3" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="Q3" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="P3" s="33" t="s">
+      <c r="R3" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="S3" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="T3" s="36" t="s">
         <v>743</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="U3" s="36" t="s">
         <v>744</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="V3" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="W3" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="X3" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="V3" s="36" t="s">
-        <v>726</v>
-      </c>
-      <c r="W3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z3" s="68" t="s">
         <v>747</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="AA3" s="69" t="s">
         <v>748</v>
       </c>
-      <c r="Y3" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z3" s="68" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA3" s="69" t="s">
-        <v>750</v>
-      </c>
       <c r="AB3" s="36" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AC3" s="36" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AD3" s="70" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AE3" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AF3" s="36" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AG3" s="70" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>752</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>753</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>754</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P4" s="33"/>
       <c r="Q4" s="33" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="S4" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="T4" s="36" t="s">
         <v>758</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="V4" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="W4" s="36" t="s">
         <v>761</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="X4" s="36" t="s">
         <v>762</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="Y4" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="Z4" s="68" t="s">
         <v>764</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="AA4" s="69" t="s">
         <v>765</v>
       </c>
-      <c r="Z4" s="68" t="s">
-        <v>766</v>
-      </c>
-      <c r="AA4" s="69" t="s">
-        <v>767</v>
-      </c>
       <c r="AB4" s="36" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AC4" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AD4" s="35" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AE4" s="36" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AF4" s="36" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AG4" s="35" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P5" s="33"/>
       <c r="Q5" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="S5" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="T5" s="36" t="s">
         <v>773</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="U5" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="V5" s="36" t="s">
         <v>775</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="W5" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="X5" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="Y5" s="36" t="s">
         <v>778</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="Z5" s="68" t="s">
         <v>779</v>
       </c>
-      <c r="Y5" s="36" t="s">
+      <c r="AA5" s="69" t="s">
         <v>780</v>
       </c>
-      <c r="Z5" s="68" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA5" s="69" t="s">
-        <v>782</v>
-      </c>
       <c r="AB5" s="36" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AC5" s="36" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AD5" s="35" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AE5" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -15217,65 +15220,65 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>69</v>
       </c>
       <c r="T6" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="V6" s="36" t="s">
         <v>787</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="W6" s="36" t="s">
         <v>788</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="X6" s="36" t="s">
         <v>789</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="Y6" s="36" t="s">
         <v>790</v>
       </c>
-      <c r="X6" s="36" t="s">
+      <c r="Z6" s="68" t="s">
         <v>791</v>
       </c>
-      <c r="Y6" s="36" t="s">
+      <c r="AA6" s="69" t="s">
         <v>792</v>
       </c>
-      <c r="Z6" s="68" t="s">
-        <v>793</v>
-      </c>
-      <c r="AA6" s="69" t="s">
-        <v>794</v>
-      </c>
       <c r="AB6" s="36" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AC6" s="36" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AE6" s="36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AF6" s="36" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AG6" s="35" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -15292,53 +15295,53 @@
       <c r="Q7" s="33"/>
       <c r="R7" s="33"/>
       <c r="S7" s="33" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U7" s="36"/>
       <c r="V7" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="X7" s="36" t="s">
         <v>800</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="Y7" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="X7" s="36" t="s">
+      <c r="Z7" s="68" t="s">
         <v>802</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z7" s="68" t="s">
-        <v>804</v>
       </c>
       <c r="AA7" s="69" t="s">
         <v>105</v>
       </c>
       <c r="AB7" s="36" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AC7" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
       <c r="AF7" s="36" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AG7" s="35" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -15355,24 +15358,24 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="T8" s="36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y8" s="36" t="s">
         <v>809</v>
       </c>
-      <c r="X8" s="36" t="s">
+      <c r="Z8" s="68" t="s">
         <v>810</v>
-      </c>
-      <c r="Y8" s="36" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z8" s="68" t="s">
-        <v>812</v>
       </c>
       <c r="AA8" s="69"/>
       <c r="AB8" s="36"/>
@@ -15384,12 +15387,12 @@
     </row>
     <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -15407,18 +15410,18 @@
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
       <c r="T9" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
       <c r="W9" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y9" s="36" t="s">
         <v>816</v>
-      </c>
-      <c r="X9" s="36" t="s">
-        <v>817</v>
-      </c>
-      <c r="Y9" s="36" t="s">
-        <v>818</v>
       </c>
       <c r="Z9" s="36"/>
       <c r="AA9" s="69"/>
@@ -15434,7 +15437,7 @@
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="34" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -15455,13 +15458,13 @@
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
       <c r="W10" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y10" s="36" t="s">
         <v>820</v>
-      </c>
-      <c r="X10" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="Y10" s="36" t="s">
-        <v>822</v>
       </c>
       <c r="Z10" s="36"/>
       <c r="AA10" s="69"/>
@@ -15477,7 +15480,7 @@
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -15498,13 +15501,13 @@
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y11" s="36" t="s">
         <v>824</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>825</v>
-      </c>
-      <c r="Y11" s="36" t="s">
-        <v>826</v>
       </c>
       <c r="Z11" s="36"/>
       <c r="AA11" s="69"/>
@@ -15539,13 +15542,13 @@
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
       <c r="W12" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y12" s="36" t="s">
         <v>827</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>828</v>
-      </c>
-      <c r="Y12" s="36" t="s">
-        <v>829</v>
       </c>
       <c r="Z12" s="36"/>
       <c r="AA12" s="69"/>
@@ -15580,13 +15583,13 @@
       <c r="U13" s="36"/>
       <c r="V13" s="36"/>
       <c r="W13" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y13" s="36" t="s">
         <v>830</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>831</v>
-      </c>
-      <c r="Y13" s="36" t="s">
-        <v>832</v>
       </c>
       <c r="Z13" s="36"/>
       <c r="AA13" s="69"/>
@@ -15621,13 +15624,13 @@
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y14" s="36" t="s">
         <v>833</v>
-      </c>
-      <c r="X14" s="36" t="s">
-        <v>834</v>
-      </c>
-      <c r="Y14" s="36" t="s">
-        <v>835</v>
       </c>
       <c r="Z14" s="36"/>
       <c r="AA14" s="69"/>
@@ -15662,13 +15665,13 @@
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36" t="s">
+        <v>834</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y15" s="36" t="s">
         <v>836</v>
-      </c>
-      <c r="X15" s="36" t="s">
-        <v>837</v>
-      </c>
-      <c r="Y15" s="36" t="s">
-        <v>838</v>
       </c>
       <c r="Z15" s="36"/>
       <c r="AA15" s="69"/>
@@ -15703,13 +15706,13 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y16" s="36" t="s">
         <v>839</v>
-      </c>
-      <c r="X16" s="36" t="s">
-        <v>840</v>
-      </c>
-      <c r="Y16" s="36" t="s">
-        <v>841</v>
       </c>
       <c r="Z16" s="36"/>
       <c r="AA16" s="69"/>
@@ -15744,13 +15747,13 @@
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
       <c r="W17" s="36" t="s">
+        <v>840</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y17" s="36" t="s">
         <v>842</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="Y17" s="36" t="s">
-        <v>844</v>
       </c>
       <c r="Z17" s="36"/>
       <c r="AA17" s="69"/>
@@ -15785,13 +15788,13 @@
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>844</v>
+      </c>
+      <c r="Y18" s="36" t="s">
         <v>845</v>
-      </c>
-      <c r="X18" s="36" t="s">
-        <v>846</v>
-      </c>
-      <c r="Y18" s="36" t="s">
-        <v>847</v>
       </c>
       <c r="Z18" s="36"/>
       <c r="AA18" s="69"/>
@@ -15826,13 +15829,13 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y19" s="36" t="s">
         <v>848</v>
-      </c>
-      <c r="X19" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="Y19" s="36" t="s">
-        <v>850</v>
       </c>
       <c r="Z19" s="36"/>
       <c r="AA19" s="69"/>
@@ -15867,13 +15870,13 @@
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36" t="s">
+        <v>849</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="Y20" s="36" t="s">
         <v>851</v>
-      </c>
-      <c r="X20" s="36" t="s">
-        <v>852</v>
-      </c>
-      <c r="Y20" s="36" t="s">
-        <v>853</v>
       </c>
       <c r="Z20" s="36"/>
       <c r="AA20" s="69"/>
@@ -15908,13 +15911,13 @@
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="36" t="s">
+        <v>852</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="Y21" s="36" t="s">
         <v>854</v>
-      </c>
-      <c r="X21" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="Y21" s="36" t="s">
-        <v>856</v>
       </c>
       <c r="Z21" s="36"/>
       <c r="AA21" s="69"/>
@@ -15949,13 +15952,13 @@
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
       <c r="W22" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="Y22" s="36" t="s">
         <v>857</v>
-      </c>
-      <c r="X22" s="36" t="s">
-        <v>858</v>
-      </c>
-      <c r="Y22" s="36" t="s">
-        <v>859</v>
       </c>
       <c r="Z22" s="36"/>
       <c r="AA22" s="69"/>
@@ -15990,13 +15993,13 @@
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
       <c r="W23" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y23" s="36" t="s">
         <v>860</v>
-      </c>
-      <c r="X23" s="36" t="s">
-        <v>861</v>
-      </c>
-      <c r="Y23" s="36" t="s">
-        <v>862</v>
       </c>
       <c r="Z23" s="36"/>
       <c r="AA23" s="71"/>
@@ -16031,13 +16034,13 @@
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
       <c r="W24" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="X24" s="36" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="Y24" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Z24" s="36"/>
       <c r="AA24" s="69"/>
@@ -16072,13 +16075,13 @@
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
       <c r="W25" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y25" s="36" t="s">
         <v>864</v>
-      </c>
-      <c r="X25" s="36" t="s">
-        <v>865</v>
-      </c>
-      <c r="Y25" s="36" t="s">
-        <v>866</v>
       </c>
       <c r="Z25" s="36"/>
       <c r="AA25" s="69"/>
@@ -16113,13 +16116,13 @@
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
       <c r="W26" s="36" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="X26" s="36" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Y26" s="36" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="Z26" s="36"/>
       <c r="AA26" s="69"/>
@@ -16154,13 +16157,13 @@
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
       <c r="W27" s="36" t="s">
+        <v>867</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y27" s="36" t="s">
         <v>869</v>
-      </c>
-      <c r="X27" s="36" t="s">
-        <v>870</v>
-      </c>
-      <c r="Y27" s="36" t="s">
-        <v>871</v>
       </c>
       <c r="Z27" s="36"/>
       <c r="AA27" s="69"/>
@@ -16195,13 +16198,13 @@
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
       <c r="W28" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="Y28" s="36" t="s">
         <v>872</v>
-      </c>
-      <c r="X28" s="36" t="s">
-        <v>873</v>
-      </c>
-      <c r="Y28" s="36" t="s">
-        <v>874</v>
       </c>
       <c r="Z28" s="36"/>
       <c r="AA28" s="69"/>
@@ -16236,10 +16239,10 @@
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
       <c r="W29" s="36" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="X29" s="36" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Y29" s="36"/>
       <c r="Z29" s="36"/>
@@ -16275,10 +16278,10 @@
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
       <c r="W30" s="36" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="X30" s="36" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Y30" s="36"/>
       <c r="Z30" s="36"/>
@@ -16314,10 +16317,10 @@
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
       <c r="W31" s="36" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="X31" s="36" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
@@ -16353,10 +16356,10 @@
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
       <c r="W32" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="X32" s="36" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y32" s="36"/>
       <c r="Z32" s="36"/>
@@ -16392,10 +16395,10 @@
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
       <c r="W33" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="X33" s="36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
@@ -16431,10 +16434,10 @@
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
       <c r="W34" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="X34" s="36" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
@@ -16470,10 +16473,10 @@
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
       <c r="W35" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="X35" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
@@ -16509,10 +16512,10 @@
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="36" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="X36" s="36" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
@@ -16548,10 +16551,10 @@
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="36" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="X37" s="36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="Y37" s="36"/>
       <c r="Z37" s="36"/>
@@ -16587,10 +16590,10 @@
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="36" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="X38" s="36" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
@@ -16626,10 +16629,10 @@
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
       <c r="W39" s="36" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="X39" s="36" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
@@ -16665,10 +16668,10 @@
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
       <c r="W40" s="36" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="X40" s="36" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
@@ -16704,10 +16707,10 @@
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
       <c r="W41" s="36" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="X41" s="36" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
@@ -16743,7 +16746,7 @@
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
       <c r="W42" s="36" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="X42" s="36"/>
       <c r="Y42" s="36"/>
@@ -16780,7 +16783,7 @@
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="X43" s="36"/>
       <c r="Y43" s="36"/>
@@ -16817,7 +16820,7 @@
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
       <c r="W44" s="36" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="X44" s="36"/>
       <c r="Y44" s="36"/>
@@ -16854,7 +16857,7 @@
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
       <c r="W45" s="36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="X45" s="36"/>
       <c r="Y45" s="36"/>
@@ -16891,7 +16894,7 @@
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
       <c r="W46" s="36" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="X46" s="36"/>
       <c r="Y46" s="36"/>
@@ -16928,7 +16931,7 @@
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
       <c r="W47" s="36" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="X47" s="36"/>
       <c r="Y47" s="36"/>
@@ -16965,7 +16968,7 @@
       <c r="U48" s="36"/>
       <c r="V48" s="36"/>
       <c r="W48" s="36" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="X48" s="36"/>
       <c r="Y48" s="36"/>
@@ -17002,7 +17005,7 @@
       <c r="U49" s="36"/>
       <c r="V49" s="36"/>
       <c r="W49" s="36" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="X49" s="36"/>
       <c r="Y49" s="36"/>
@@ -17039,7 +17042,7 @@
       <c r="U50" s="36"/>
       <c r="V50" s="36"/>
       <c r="W50" s="36" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="X50" s="36"/>
       <c r="Y50" s="36"/>
@@ -17076,7 +17079,7 @@
       <c r="U51" s="36"/>
       <c r="V51" s="36"/>
       <c r="W51" s="36" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
@@ -17113,7 +17116,7 @@
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
       <c r="W52" s="36" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="X52" s="36"/>
       <c r="Y52" s="36"/>
@@ -17150,7 +17153,7 @@
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
       <c r="W53" s="36" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="X53" s="36"/>
       <c r="Y53" s="36"/>
@@ -17187,7 +17190,7 @@
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
       <c r="W54" s="36" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="X54" s="36"/>
       <c r="Y54" s="36"/>
@@ -17224,7 +17227,7 @@
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
       <c r="W55" s="36" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="X55" s="36"/>
       <c r="Y55" s="36"/>
@@ -17261,7 +17264,7 @@
       <c r="U56" s="36"/>
       <c r="V56" s="36"/>
       <c r="W56" s="36" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="X56" s="36"/>
       <c r="Y56" s="36"/>
@@ -17298,7 +17301,7 @@
       <c r="U57" s="36"/>
       <c r="V57" s="36"/>
       <c r="W57" s="36" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="X57" s="36"/>
       <c r="Y57" s="36"/>
@@ -17335,7 +17338,7 @@
       <c r="U58" s="36"/>
       <c r="V58" s="36"/>
       <c r="W58" s="36" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="X58" s="36"/>
       <c r="Y58" s="36"/>
@@ -17372,7 +17375,7 @@
       <c r="U59" s="36"/>
       <c r="V59" s="36"/>
       <c r="W59" s="36" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="X59" s="36"/>
       <c r="Y59" s="36"/>
@@ -17409,7 +17412,7 @@
       <c r="U60" s="36"/>
       <c r="V60" s="36"/>
       <c r="W60" s="36" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="X60" s="36"/>
       <c r="Y60" s="36"/>
@@ -17446,7 +17449,7 @@
       <c r="U61" s="36"/>
       <c r="V61" s="36"/>
       <c r="W61" s="36" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="X61" s="36"/>
       <c r="Y61" s="36"/>
@@ -17483,7 +17486,7 @@
       <c r="U62" s="36"/>
       <c r="V62" s="36"/>
       <c r="W62" s="36" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="X62" s="36"/>
       <c r="Y62" s="36"/>
@@ -17520,7 +17523,7 @@
       <c r="U63" s="36"/>
       <c r="V63" s="36"/>
       <c r="W63" s="36" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="X63" s="36"/>
       <c r="Y63" s="36"/>
@@ -17557,7 +17560,7 @@
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
       <c r="W64" s="36" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="X64" s="36"/>
       <c r="Y64" s="36"/>
@@ -17594,7 +17597,7 @@
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
       <c r="W65" s="36" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="X65" s="36"/>
       <c r="Y65" s="36"/>
@@ -17631,7 +17634,7 @@
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
       <c r="W66" s="36" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="X66" s="36"/>
       <c r="Y66" s="36"/>
@@ -17668,7 +17671,7 @@
       <c r="U67" s="36"/>
       <c r="V67" s="36"/>
       <c r="W67" s="36" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="X67" s="36"/>
       <c r="Y67" s="36"/>
@@ -17705,7 +17708,7 @@
       <c r="U68" s="36"/>
       <c r="V68" s="36"/>
       <c r="W68" s="36" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="X68" s="36"/>
       <c r="Y68" s="36"/>
@@ -17742,7 +17745,7 @@
       <c r="U69" s="36"/>
       <c r="V69" s="36"/>
       <c r="W69" s="36" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="X69" s="36"/>
       <c r="Y69" s="36"/>
@@ -17779,7 +17782,7 @@
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="X70" s="36"/>
       <c r="Y70" s="36"/>
@@ -17816,7 +17819,7 @@
       <c r="U71" s="36"/>
       <c r="V71" s="36"/>
       <c r="W71" s="36" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="X71" s="36"/>
       <c r="Y71" s="36"/>
@@ -17853,7 +17856,7 @@
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
       <c r="W72" s="36" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="X72" s="36"/>
       <c r="Y72" s="36"/>
@@ -17890,7 +17893,7 @@
       <c r="U73" s="36"/>
       <c r="V73" s="36"/>
       <c r="W73" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="X73" s="36"/>
       <c r="Y73" s="36"/>
@@ -17927,7 +17930,7 @@
       <c r="U74" s="36"/>
       <c r="V74" s="36"/>
       <c r="W74" s="36" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="X74" s="36"/>
       <c r="Y74" s="36"/>
@@ -17964,7 +17967,7 @@
       <c r="U75" s="36"/>
       <c r="V75" s="36"/>
       <c r="W75" s="36" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="X75" s="36"/>
       <c r="Y75" s="36"/>
@@ -18001,7 +18004,7 @@
       <c r="U76" s="36"/>
       <c r="V76" s="36"/>
       <c r="W76" s="36" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="X76" s="36"/>
       <c r="Y76" s="36"/>
@@ -18038,7 +18041,7 @@
       <c r="U77" s="36"/>
       <c r="V77" s="36"/>
       <c r="W77" s="36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="X77" s="36"/>
       <c r="Y77" s="36"/>
@@ -18075,7 +18078,7 @@
       <c r="U78" s="36"/>
       <c r="V78" s="36"/>
       <c r="W78" s="36" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="X78" s="36"/>
       <c r="Y78" s="36"/>
@@ -18112,7 +18115,7 @@
       <c r="U79" s="36"/>
       <c r="V79" s="36"/>
       <c r="W79" s="36" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="X79" s="36"/>
       <c r="Y79" s="36"/>
@@ -18149,7 +18152,7 @@
       <c r="U80" s="36"/>
       <c r="V80" s="36"/>
       <c r="W80" s="36" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="X80" s="36"/>
       <c r="Y80" s="36"/>
@@ -18186,7 +18189,7 @@
       <c r="U81" s="36"/>
       <c r="V81" s="36"/>
       <c r="W81" s="36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="X81" s="36"/>
       <c r="Y81" s="36"/>
@@ -18223,7 +18226,7 @@
       <c r="U82" s="36"/>
       <c r="V82" s="36"/>
       <c r="W82" s="36" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="X82" s="36"/>
       <c r="Y82" s="36"/>
@@ -18260,7 +18263,7 @@
       <c r="U83" s="36"/>
       <c r="V83" s="36"/>
       <c r="W83" s="36" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="X83" s="36"/>
       <c r="Y83" s="36"/>
@@ -18297,7 +18300,7 @@
       <c r="U84" s="36"/>
       <c r="V84" s="36"/>
       <c r="W84" s="36" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="X84" s="36"/>
       <c r="Y84" s="36"/>
@@ -26269,16 +26272,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>61</v>
@@ -26289,16 +26292,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -26306,16 +26309,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -26323,16 +26326,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -26340,16 +26343,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D5" t="s">
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -26365,7 +26368,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26378,16 +26381,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -26395,7 +26398,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -26409,7 +26412,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -26417,7 +26420,7 @@
         <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -26425,90 +26428,90 @@
         <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -26535,10 +26538,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26548,12 +26551,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -26586,10 +26589,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26597,21 +26600,21 @@
         <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>970</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>971</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26619,43 +26622,43 @@
         <v>129</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>975</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>976</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>978</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>979</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>980</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>981</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>982</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26663,7 +26666,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -26672,194 +26675,194 @@
         <v>98</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>992</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>993</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>995</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>996</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>997</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>998</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
+        <v>999</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>1001</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>1006</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>1015</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>1018</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>1021</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26867,65 +26870,65 @@
         <v>54</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>1034</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>1037</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>1040</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -26933,29 +26936,29 @@
         <v>111</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>1045</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C36" s="27"/>
     </row>
@@ -26964,7 +26967,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C37" s="22"/>
     </row>
@@ -26973,7 +26976,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C38" s="27"/>
     </row>
@@ -26982,7 +26985,7 @@
         <v>123</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C39" s="22"/>
     </row>
@@ -26991,7 +26994,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C40" s="22"/>
     </row>
@@ -27000,160 +27003,160 @@
         <v>146</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C42" s="27"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C47" s="27"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C50" s="27"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C51" s="27"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C53" s="27"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C55" s="27"/>
     </row>
     <row r="56" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C56" s="27"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C57" s="27"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C58" s="27"/>
     </row>
@@ -27162,16 +27165,16 @@
         <v>163</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C59" s="50"/>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C60" s="50"/>
     </row>
@@ -27200,18 +27203,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27219,15 +27222,15 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -27235,7 +27238,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -27262,26 +27265,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -27314,7 +27317,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27322,7 +27325,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27330,111 +27333,111 @@
         <v>153</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="68" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="68" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/single_cell/singlecell_schema_main_v0.4.xlsx
+++ b/single_cell/singlecell_schema_main_v0.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428CF79-5F0C-7249-908E-17DAFB5DC95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1598FD3A-249D-A64B-84A0-80E44C22A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="5" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="1267">
   <si>
     <t>component_name</t>
   </si>
@@ -4008,6 +4008,12 @@
   </si>
   <si>
     <t>Expected text with no leading or trailing spaces, followed by a space and a tag in the format Letters:Numbers.</t>
+  </si>
+  <si>
+    <t>AND(LEN(({column_letter}{row_start})-LEN(SUBSTITUTE(({column_letter}{row_start},":",""))=1,   LEN(({column_letter}{row_start})-LEN(SUBSTITUTE(LEFT(({column_letter}{row_start},FIND(":",({column_letter}{row_start})-1),"A",""))&gt;0,  LEN(LEFT(({column_letter}{row_start},FIND(":",({column_letter}{row_start})-1))&gt;=2,   ISNUMBER(VALUE(RIGHT(({column_letter}{row_start},LEN(({column_letter}{row_start})-FIND(":",({column_letter}{row_start})))))</t>
+  </si>
+  <si>
+    <t>AND( LEN(({column_letter}{row_start})=32, LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTESUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(({column_letter}{row_start},"0",""),"1",""),"2",""),"3",""),"4",""),"5",""), "6",""),"7",""),"8",""),"9",""),"a",""),"b",""),"c",""),"d",""),"e",""),"f","") )=0)</t>
   </si>
 </sst>
 </file>
@@ -5374,7 +5380,7 @@
   </sheetPr>
   <dimension ref="A1:S203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
       <selection pane="topRight" activeCell="L9" sqref="L9"/>
@@ -26569,10 +26575,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27160,7 +27166,7 @@
       </c>
       <c r="C58" s="27"/>
     </row>
-    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
         <v>163</v>
       </c>
@@ -27177,6 +27183,24 @@
         <v>1205</v>
       </c>
       <c r="C60" s="50"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="49" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="49" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C62" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C53" xr:uid="{D95B3E19-31EE-401E-8E14-DBEF7BC74F95}"/>
@@ -27192,7 +27216,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
